--- a/sriramModel-nelson-melancholic-patientID_33-sims-cort-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-cort-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.886345745595045</v>
+        <v>7.903606958290557</v>
       </c>
       <c r="C2">
-        <v>7.904992768605139</v>
+        <v>7.87978942888047</v>
       </c>
       <c r="D2">
-        <v>7.945097386745963</v>
+        <v>7.85565132939304</v>
       </c>
       <c r="E2">
-        <v>7.917426519695777</v>
+        <v>7.91755043720173</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.888163530288359</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.970339356943636</v>
+        <v>8.002250036147775</v>
       </c>
       <c r="C3">
-        <v>8.007454975950449</v>
+        <v>7.956646258382906</v>
       </c>
       <c r="D3">
-        <v>8.082356096797415</v>
+        <v>7.911128314064614</v>
       </c>
       <c r="E3">
-        <v>8.030515493117786</v>
+        <v>8.029852164558598</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>7.97430340054587</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.052168618142286</v>
+        <v>8.096231687807332</v>
       </c>
       <c r="C4">
-        <v>8.107485915613445</v>
+        <v>8.030746518909945</v>
       </c>
       <c r="D4">
-        <v>8.212240398615736</v>
+        <v>7.966461188261733</v>
       </c>
       <c r="E4">
-        <v>8.139507601469171</v>
+        <v>8.13721474391463</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8.05853096014345</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.13201357840919</v>
+        <v>8.185842172860779</v>
       </c>
       <c r="C5">
-        <v>8.20518115533257</v>
+        <v>8.10226068739143</v>
       </c>
       <c r="D5">
-        <v>8.335190556481145</v>
+        <v>8.02167922385771</v>
       </c>
       <c r="E5">
-        <v>8.244632826813229</v>
+        <v>8.239932566066011</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8.140953669114248</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.210046772379279</v>
+        <v>8.271360288369824</v>
       </c>
       <c r="C6">
-        <v>8.300632671817569</v>
+        <v>8.171353731983702</v>
       </c>
       <c r="D6">
-        <v>8.451624073454591</v>
+        <v>8.076810689334444</v>
       </c>
       <c r="E6">
-        <v>8.346110907889317</v>
+        <v>8.338285984702186</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>8.221675348468469</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.286433431351337</v>
+        <v>8.353053933855747</v>
       </c>
       <c r="C7">
-        <v>8.393928980645057</v>
+        <v>8.238185535345224</v>
       </c>
       <c r="D7">
-        <v>8.56193686750898</v>
+        <v>8.1318829476178</v>
       </c>
       <c r="E7">
-        <v>8.444151777251163</v>
+        <v>8.432541323321956</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8.300796652188511</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.361331685800533</v>
+        <v>8.431180658939747</v>
       </c>
       <c r="C8">
-        <v>8.485155261216759</v>
+        <v>8.302910995447116</v>
       </c>
       <c r="D8">
-        <v>8.666504384212223</v>
+        <v>8.186922553205688</v>
       </c>
       <c r="E8">
-        <v>8.538955979144337</v>
+        <v>8.522952071485312</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>8.378414783551955</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.434892759497199</v>
+        <v>8.50598813012582</v>
       </c>
       <c r="C9">
-        <v>8.574393476847858</v>
+        <v>8.365680181707495</v>
       </c>
       <c r="D9">
-        <v>8.765682650026291</v>
+        <v>8.241955155565369</v>
       </c>
       <c r="E9">
-        <v>8.630715070147923</v>
+        <v>8.609759423579376</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8.454623614869876</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.507261155519215</v>
+        <v>8.577714567885188</v>
       </c>
       <c r="C10">
-        <v>8.661722490721145</v>
+        <v>8.426638467482393</v>
       </c>
       <c r="D10">
-        <v>8.859809269683918</v>
+        <v>8.297005493121851</v>
       </c>
       <c r="E10">
-        <v>8.71961200265822</v>
+        <v>8.693192726418538</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>8.529513928167903</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.578574834442966</v>
+        <v>8.646589162517746</v>
       </c>
       <c r="C11">
-        <v>8.747218177409412</v>
+        <v>8.485926723493018</v>
       </c>
       <c r="D11">
-        <v>8.949204370848905</v>
+        <v>8.352097445774046</v>
       </c>
       <c r="E11">
-        <v>8.80582149216224</v>
+        <v>8.773470072212524</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8.603173535713008</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.648965384971037</v>
+        <v>8.712832451966335</v>
       </c>
       <c r="C12">
-        <v>8.830953530087944</v>
+        <v>8.543681262842401</v>
       </c>
       <c r="D12">
-        <v>9.034171499080733</v>
+        <v>8.407254053757198</v>
       </c>
       <c r="E12">
-        <v>8.889510368917271</v>
+        <v>8.850798872355282</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8.675687346320348</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.718558187239628</v>
+        <v>8.776656673914875</v>
       </c>
       <c r="C13">
-        <v>8.912998763776777</v>
+        <v>8.600034163310998</v>
       </c>
       <c r="D13">
-        <v>9.114998465899182</v>
+        <v>8.462497512951666</v>
       </c>
       <c r="E13">
-        <v>8.970837914714787</v>
+        <v>8.925376355903227</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>8.747137409484635</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.787472569027768</v>
+        <v>8.838266102810689</v>
       </c>
       <c r="C14">
-        <v>8.99342141460192</v>
+        <v>8.655113298755078</v>
       </c>
       <c r="D14">
-        <v>9.191958152549461</v>
+        <v>8.517849167293658</v>
       </c>
       <c r="E14">
-        <v>9.04995618533118</v>
+        <v>8.997390031420252</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>8.817603000368058</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.855821955075346</v>
+        <v>8.897857366073648</v>
       </c>
       <c r="C15">
-        <v>9.072286435266284</v>
+        <v>8.709042549797717</v>
       </c>
       <c r="D15">
-        <v>9.265309271923702</v>
+        <v>8.573329502682975</v>
       </c>
       <c r="E15">
-        <v>9.127010319284617</v>
+        <v>9.067018143444416</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>8.887160744897372</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.923714009701817</v>
+        <v>8.955619740189968</v>
       </c>
       <c r="C16">
-        <v>9.14965628682147</v>
+        <v>8.761941930959111</v>
       </c>
       <c r="D16">
-        <v>9.335297090900443</v>
+        <v>8.628958146042027</v>
       </c>
       <c r="E16">
-        <v>9.202138833458415</v>
+        <v>9.134430098941417</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>8.955884689323012</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.991250772904085</v>
+        <v>9.01173543164534</v>
       </c>
       <c r="C17">
-        <v>9.225591026858142</v>
+        <v>8.813927628158076</v>
       </c>
       <c r="D17">
-        <v>9.402154115264089</v>
+        <v>8.684753859996421</v>
       </c>
       <c r="E17">
-        <v>9.275473906129022</v>
+        <v>9.199786889395497</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>9.023846336545763</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.058528790098318</v>
+        <v>9.066379842870411</v>
       </c>
       <c r="C18">
-        <v>9.300148394220127</v>
+        <v>8.865112131844722</v>
       </c>
       <c r="D18">
-        <v>9.466100739189189</v>
+        <v>8.740734527885197</v>
       </c>
       <c r="E18">
-        <v>9.347141647929563</v>
+        <v>9.263241489086299</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>9.091114798252432</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.125639235658591</v>
+        <v>9.11972182450419</v>
       </c>
       <c r="C19">
-        <v>9.373383890338799</v>
+        <v>8.915604321452484</v>
       </c>
       <c r="D19">
-        <v>9.527345861188554</v>
+        <v>8.796917154332164</v>
       </c>
       <c r="E19">
-        <v>9.417262361242392</v>
+        <v>9.324939228688407</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>9.157756821910935</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.192668030393866</v>
+        <v>9.171923914064768</v>
       </c>
       <c r="C20">
-        <v>9.44535085728136</v>
+        <v>8.965509602239718</v>
       </c>
       <c r="D20">
-        <v>9.586087468294238</v>
+        <v>8.853317828692646</v>
       </c>
       <c r="E20">
-        <v>9.485950788491579</v>
+        <v>9.385018153439079</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>9.223836850462504</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.259695953094106</v>
+        <v>9.223142559761085</v>
       </c>
       <c r="C21">
-        <v>9.516100552596997</v>
+        <v>9.014930006750186</v>
       </c>
       <c r="D21">
-        <v>9.642513190125504</v>
+        <v>8.909951722137382</v>
       </c>
       <c r="E21">
-        <v>9.553316349785069</v>
+        <v>9.443609364898421</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>9.289417084395339</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.326798746266059</v>
+        <v>9.273528335277629</v>
       </c>
       <c r="C22">
-        <v>9.585682221043694</v>
+        <v>9.063964292663728</v>
       </c>
       <c r="D22">
-        <v>9.696800824423295</v>
+        <v>8.966833055067292</v>
       </c>
       <c r="E22">
-        <v>9.619463370342775</v>
+        <v>9.500837346769519</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>9.354557574174502</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.394047216170861</v>
+        <v>9.323226142920891</v>
       </c>
       <c r="C23">
-        <v>9.654143163261764</v>
+        <v>9.112708043034852</v>
       </c>
       <c r="D23">
-        <v>9.749118835507492</v>
+        <v>9.023975070676581</v>
       </c>
       <c r="E23">
-        <v>9.684491298116349</v>
+        <v>9.556820275359831</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>9.4193162661619</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.461507327264458</v>
+        <v>9.37237540057933</v>
       </c>
       <c r="C24">
-        <v>9.721528801464707</v>
+        <v>9.161253738525216</v>
       </c>
       <c r="D24">
-        <v>9.799626827050503</v>
+        <v>9.081390014774641</v>
       </c>
       <c r="E24">
-        <v>9.748494911979867</v>
+        <v>9.611670315429805</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>9.483749036599425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.529240291136434</v>
+        <v>9.421110217484818</v>
       </c>
       <c r="C25">
-        <v>9.787882742203156</v>
+        <v>9.209690847743012</v>
       </c>
       <c r="D25">
-        <v>9.848475990459336</v>
+        <v>9.139089095076327</v>
       </c>
       <c r="E25">
-        <v>9.811564520870752</v>
+        <v>9.665493902170622</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9.547909766913813</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.597302650033166</v>
+        <v>9.469559559095053</v>
       </c>
       <c r="C26">
-        <v>9.853246836252403</v>
+        <v>9.25810590879969</v>
       </c>
       <c r="D26">
-        <v>9.89580953008479</v>
+        <v>9.197082441884744</v>
       </c>
       <c r="E26">
-        <v>9.873786154221749</v>
+        <v>9.718392014314276</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>9.611850398550905</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9.66574635504495</v>
+        <v>9.517847400558441</v>
       </c>
       <c r="C27">
-        <v>9.917661235665664</v>
+        <v>9.306582607747186</v>
       </c>
       <c r="D27">
-        <v>9.941763066403766</v>
+        <v>9.25537907801329</v>
       </c>
       <c r="E27">
-        <v>9.935241744005637</v>
+        <v>9.770460418441326</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>9.675620974246229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.734618839030198</v>
+        <v>9.566092866650552</v>
       </c>
       <c r="C28">
-        <v>9.981164448026481</v>
+        <v>9.355201854823392</v>
       </c>
       <c r="D28">
-        <v>9.986465018232058</v>
+        <v>9.31398685904429</v>
       </c>
       <c r="E28">
-        <v>9.996009298703116</v>
+        <v>9.821789923672117</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>9.739269657355143</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.803963084344069</v>
+        <v>9.614410360015583</v>
       </c>
       <c r="C29">
-        <v>10.0437933879242</v>
+        <v>9.404041852319208</v>
       </c>
       <c r="D29">
-        <v>10.03003696497121</v>
+        <v>9.372912436518151</v>
       </c>
       <c r="E29">
-        <v>10.0561630694765</v>
+        <v>9.872466611305176</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>9.802842803104415</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.873817685433956</v>
+        <v>9.662909673909782</v>
       </c>
       <c r="C30">
-        <v>10.10558342566635</v>
+        <v>9.453178159993682</v>
       </c>
       <c r="D30">
-        <v>10.07259398980127</v>
+        <v>9.432161198262266</v>
       </c>
       <c r="E30">
-        <v>10.1157737088094</v>
+        <v>9.922572056294392</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>9.866384985215801</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.944216906360415</v>
+        <v>9.71169608946775</v>
       </c>
       <c r="C31">
-        <v>10.16656843323023</v>
+        <v>9.502683754609969</v>
       </c>
       <c r="D31">
-        <v>10.11424500467402</v>
+        <v>9.491737205038918</v>
       </c>
       <c r="E31">
-        <v>10.17490842184716</v>
+        <v>9.972183538318374</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>9.929939027908834</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10.01519073329897</v>
+        <v>9.76087045894395</v>
       </c>
       <c r="C32">
-        <v>10.22678082744372</v>
+        <v>9.552629080745433</v>
       </c>
       <c r="D32">
-        <v>10.15509305787933</v>
+        <v>9.551643142845004</v>
       </c>
       <c r="E32">
-        <v>10.23363111065801</v>
+        <v>10.02137424275201</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9.993546014206448</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10.08676492207593</v>
+        <v>9.810529271902324</v>
       </c>
       <c r="C33">
-        <v>10.28625161037357</v>
+        <v>9.603082101198414</v>
       </c>
       <c r="D33">
-        <v>10.19523562488086</v>
+        <v>9.61188024194502</v>
       </c>
       <c r="E33">
-        <v>10.29200251159824</v>
+        <v>10.07021345193379</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>10.05724533884337</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10.15896104079214</v>
+        <v>9.860764702842387</v>
       </c>
       <c r="C34">
-        <v>10.34501040687728</v>
+        <v>9.654108339876212</v>
       </c>
       <c r="D34">
-        <v>10.23476488304444</v>
+        <v>9.672448212588892</v>
       </c>
       <c r="E34">
-        <v>10.35008032593274</v>
+        <v>10.11876671240215</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10.12107471190049</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10.23179650758858</v>
+        <v>9.911664638483646</v>
       </c>
       <c r="C35">
-        <v>10.40308549926615</v>
+        <v>9.705770918372792</v>
       </c>
       <c r="D35">
-        <v>10.27376797078247</v>
+        <v>9.7333451776415</v>
       </c>
       <c r="E35">
-        <v>10.40791934384219</v>
+        <v>10.16709604815603</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>10.18507016994852</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10.30528462361191</v>
+        <v>9.963312682723691</v>
       </c>
       <c r="C36">
-        <v>10.46050385900044</v>
+        <v>9.758130581165791</v>
       </c>
       <c r="D36">
-        <v>10.31232723155731</v>
+        <v>9.794567580684886</v>
       </c>
       <c r="E36">
-        <v>10.46557156189921</v>
+        <v>10.2152600985739</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10.24926608020526</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10.37943460124306</v>
+        <v>10.01578813396349</v>
       </c>
       <c r="C37">
-        <v>10.51729117531979</v>
+        <v>9.811245715568155</v>
       </c>
       <c r="D37">
-        <v>10.35052044306581</v>
+        <v>9.856110120528431</v>
       </c>
       <c r="E37">
-        <v>10.52308629405245</v>
+        <v>10.26331426243314</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>10.31369515038276</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10.45425158766087</v>
+        <v>10.06916594404043</v>
       </c>
       <c r="C38">
-        <v>10.57347188067763</v>
+        <v>9.86517236176088</v>
       </c>
       <c r="D38">
-        <v>10.38842103181289</v>
+        <v>9.917965660418819</v>
       </c>
       <c r="E38">
-        <v>10.5805102761117</v>
+        <v>10.31131084839993</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>10.37838841098666</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>10.52973668382425</v>
+        <v>10.12351663894162</v>
       </c>
       <c r="C39">
-        <v>10.62906917280188</v>
+        <v>9.919964213004775</v>
       </c>
       <c r="D39">
-        <v>10.42609827313743</v>
+        <v>9.980125139105175</v>
       </c>
       <c r="E39">
-        <v>10.63788776366414</v>
+        <v>10.35929923044483</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>10.44337519924725</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10.60588695897331</v>
+        <v>10.17890620510775</v>
       </c>
       <c r="C40">
-        <v>10.68410503326152</v>
+        <v>9.975672602905419</v>
       </c>
       <c r="D40">
-        <v>10.46361747657716</v>
+        <v>10.04257749498553</v>
       </c>
       <c r="E40">
-        <v>10.69526062327768</v>
+        <v>10.40732597441683</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>10.50868315021908</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10.68269546076906</v>
+        <v>10.23539593845758</v>
       </c>
       <c r="C41">
-        <v>10.738600242208</v>
+        <v>10.03234647475608</v>
       </c>
       <c r="D41">
-        <v>10.5010401562676</v>
+        <v>10.10530956986575</v>
       </c>
       <c r="E41">
-        <v>10.75266841675291</v>
+        <v>10.45543494888815</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>10.57433813328518</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10.76015122122012</v>
+        <v>10.29304225170906</v>
       </c>
       <c r="C42">
-        <v>10.79257438906935</v>
+        <v>10.09003234264867</v>
       </c>
       <c r="D42">
-        <v>10.53842418580674</v>
+        <v>10.16830603106162</v>
       </c>
       <c r="E42">
-        <v>10.81014847808901</v>
+        <v>10.50366743397856</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>10.6403642073459</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10.83823925857698</v>
+        <v>10.3518964340748</v>
       </c>
       <c r="C43">
-        <v>10.84604587883015</v>
+        <v>10.14877422812799</v>
       </c>
       <c r="D43">
-        <v>10.57582393672644</v>
+        <v>10.23154928409076</v>
       </c>
       <c r="E43">
-        <v>10.8677359826827</v>
+        <v>10.55206222507253</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>10.70678355788794</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10.91694057541883</v>
+        <v>10.41200435762753</v>
       </c>
       <c r="C44">
-        <v>10.89903193348906</v>
+        <v>10.2086135715456</v>
       </c>
       <c r="D44">
-        <v>10.61329039932466</v>
+        <v>10.29501939662186</v>
       </c>
       <c r="E44">
-        <v>10.92546400810595</v>
+        <v>10.60065572145949</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>10.77361641427534</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10.99623215320874</v>
+        <v>10.47340612346898</v>
       </c>
       <c r="C45">
-        <v>10.95154858819242</v>
+        <v>10.26958912414483</v>
       </c>
       <c r="D45">
-        <v>10.65087128414848</v>
+        <v>10.35869402095282</v>
       </c>
       <c r="E45">
-        <v>10.98336358560954</v>
+        <v>10.64948199132312</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>10.84088094477928</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11.07608694365864</v>
+        <v>10.53613564673172</v>
       </c>
       <c r="C46">
-        <v>11.00361068144792</v>
+        <v>10.33173681625524</v>
       </c>
       <c r="D46">
-        <v>10.68861110184024</v>
+        <v>10.42254832507217</v>
       </c>
       <c r="E46">
-        <v>11.0414637412209</v>
+        <v>10.69857282316875</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>10.90859312549319</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>11.15647385732484</v>
+        <v>10.6002201697732</v>
       </c>
       <c r="C47">
-        <v>11.05523183869702</v>
+        <v>10.3950895828729</v>
       </c>
       <c r="D47">
-        <v>10.72655121831736</v>
+        <v>10.48655494549661</v>
       </c>
       <c r="E47">
-        <v>11.09979152496779</v>
+        <v>10.74795775308643</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>10.9767665890326</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>11.23735774995159</v>
+        <v>10.66567969565597</v>
       </c>
       <c r="C48">
-        <v>11.1064244483796</v>
+        <v>10.4596771409632</v>
       </c>
       <c r="D48">
-        <v>10.7647298813724</v>
+        <v>10.55068391584102</v>
       </c>
       <c r="E48">
-        <v>11.15837202629406</v>
+        <v>10.79766405491915</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>11.04541243071299</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11.31869940719705</v>
+        <v>10.7325263479341</v>
       </c>
       <c r="C49">
-        <v>11.15719962944811</v>
+        <v>10.52552572756631</v>
       </c>
       <c r="D49">
-        <v>10.80318221362775</v>
+        <v>10.61490265682857</v>
       </c>
       <c r="E49">
-        <v>11.21722837323471</v>
+        <v>10.84771668991557</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>11.11453898186838</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>11.40045552851721</v>
+        <v>10.80076364623964</v>
       </c>
       <c r="C50">
-        <v>11.20756718906595</v>
+        <v>10.59265779668333</v>
       </c>
       <c r="D50">
-        <v>10.84194016540862</v>
+        <v>10.67917595170482</v>
       </c>
       <c r="E50">
-        <v>11.27638171217315</v>
+        <v>10.89813819745365</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>11.18415153667726</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>11.48257871115381</v>
+        <v>10.87038569987817</v>
       </c>
       <c r="C51">
-        <v>11.25753556894671</v>
+        <v>10.66109162818641</v>
       </c>
       <c r="D51">
-        <v>10.88103241937753</v>
+        <v>10.74346590383794</v>
       </c>
       <c r="E51">
-        <v>11.33585116405547</v>
+        <v>10.94894851523552</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>11.25425202624024</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>11.56501743537386</v>
+        <v>10.94137632429764</v>
       </c>
       <c r="C52">
-        <v>11.30711177852833</v>
+        <v>10.73084086476042</v>
       </c>
       <c r="D52">
-        <v>10.92048423662906</v>
+        <v>10.80773201927363</v>
       </c>
       <c r="E52">
-        <v>11.39565375180721</v>
+        <v>11.00016470563658</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>11.32483867751473</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>11.64781103893607</v>
+        <v>11.01389737309282</v>
       </c>
       <c r="C53">
-        <v>11.35646898675565</v>
+        <v>10.80204805296227</v>
       </c>
       <c r="D53">
-        <v>10.96059868395046</v>
+        <v>10.87202289825358</v>
       </c>
       <c r="E53">
-        <v>11.45595895023479</v>
+        <v>11.0520302630023</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>11.39603324763475</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>11.73135715523674</v>
+        <v>11.08882694427643</v>
       </c>
       <c r="C54">
-        <v>11.40642953928182</v>
+        <v>10.87537198472023</v>
       </c>
       <c r="D54">
-        <v>11.0027663605292</v>
+        <v>10.93673488707194</v>
       </c>
       <c r="E54">
-        <v>11.51753558725261</v>
+        <v>11.10567602801533</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>11.46844602538041</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>11.81609654554302</v>
+        <v>11.16713689119711</v>
       </c>
       <c r="C55">
-        <v>11.45792870721361</v>
+        <v>10.95156225147825</v>
       </c>
       <c r="D55">
-        <v>11.04856230523007</v>
+        <v>11.00230968156091</v>
       </c>
       <c r="E55">
-        <v>11.58125889604144</v>
+        <v>11.16238479616517</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>11.54277273565601</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>11.90241465235239</v>
+        <v>11.24969063101573</v>
       </c>
       <c r="C56">
-        <v>11.51184484318989</v>
+        <v>11.03131778524053</v>
       </c>
       <c r="D56">
-        <v>11.09945798728875</v>
+        <v>11.06913871554468</v>
       </c>
       <c r="E56">
-        <v>11.64795288035776</v>
+        <v>11.22335502069729</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>11.61965876008277</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>11.99064254808517</v>
+        <v>11.33723773098028</v>
       </c>
       <c r="C57">
-        <v>11.56900130753713</v>
+        <v>11.11528383143096</v>
       </c>
       <c r="D57">
-        <v>11.15682159742193</v>
+        <v>11.13756356947143</v>
       </c>
       <c r="E57">
-        <v>11.71839109661219</v>
+        <v>11.28969978931132</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>11.69969690541951</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>12.08105788867461</v>
+        <v>11.43040864122051</v>
       </c>
       <c r="C58">
-        <v>11.63016749869046</v>
+        <v>11.20404724668263</v>
       </c>
       <c r="D58">
-        <v>11.22191643493228</v>
+        <v>11.2078762118671</v>
       </c>
       <c r="E58">
-        <v>11.79329677834064</v>
+        <v>11.36244311791951</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>11.78342330732596</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>12.17388589758206</v>
+        <v>11.52970901696573</v>
       </c>
       <c r="C59">
-        <v>11.69605909142999</v>
+        <v>11.29813084158261</v>
       </c>
       <c r="D59">
-        <v>11.2958972592174</v>
+        <v>11.28031942722435</v>
       </c>
       <c r="E59">
-        <v>11.87334218998202</v>
+        <v>11.44251370898642</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>11.87131253006617</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>12.26930040665152</v>
+        <v>11.63551486253787</v>
       </c>
       <c r="C60">
-        <v>11.76733750585873</v>
+        <v>11.3979867092526</v>
       </c>
       <c r="D60">
-        <v>11.37980435709757</v>
+        <v>11.35508743781329</v>
       </c>
       <c r="E60">
-        <v>11.95914705681863</v>
+        <v>11.53073624947475</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>11.96377215604903</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>12.3674249819278</v>
+        <v>11.74806867057334</v>
       </c>
       <c r="C61">
-        <v>11.84460857166165</v>
+        <v>11.50398834665266</v>
       </c>
       <c r="D61">
-        <v>11.4745550248898</v>
+        <v>11.43232674152287</v>
       </c>
       <c r="E61">
-        <v>12.05127587456241</v>
+        <v>11.62781992621656</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>12.06113625230073</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>12.46833416479556</v>
+        <v>11.86747682885107</v>
       </c>
       <c r="C62">
-        <v>11.92842030313427</v>
+        <v>11.61642162724755</v>
       </c>
       <c r="D62">
-        <v>11.58093217071485</v>
+        <v>11.51213715156799</v>
       </c>
       <c r="E62">
-        <v>12.15023385834627</v>
+        <v>11.73434439794841</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>12.16365832835898</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>12.57205486131489</v>
+        <v>11.99370929299532</v>
       </c>
       <c r="C63">
-        <v>12.01925965433934</v>
+        <v>11.7354747489049</v>
       </c>
       <c r="D63">
-        <v>11.69956982607595</v>
+        <v>11.59457333780456</v>
       </c>
       <c r="E63">
-        <v>12.25646125360142</v>
+        <v>11.85074364330677</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>12.27150436212635</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>12.67856791512115</v>
+        <v>12.12660166709358</v>
       </c>
       <c r="C64">
-        <v>12.11754807765044</v>
+        <v>11.86122745341239</v>
       </c>
       <c r="D64">
-        <v>11.83093554868263</v>
+        <v>11.67964644168793</v>
       </c>
       <c r="E64">
-        <v>12.37032571309766</v>
+        <v>11.97728811084089</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>12.38474593658007</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>12.78780990136295</v>
+        <v>12.26586014191176</v>
       </c>
       <c r="C65">
-        <v>12.22363566319809</v>
+        <v>11.99364013255602</v>
       </c>
       <c r="D65">
-        <v>11.97531003935834</v>
+        <v>11.76732607863107</v>
       </c>
       <c r="E65">
-        <v>12.49211246606533</v>
+        <v>12.11406683335318</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>12.50335419653181</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>12.89967518037969</v>
+        <v>12.41106978557918</v>
       </c>
       <c r="C66">
-        <v>12.33779359588441</v>
+        <v>12.13254377898386</v>
       </c>
       <c r="D66">
-        <v>12.13276481829741</v>
+        <v>11.85754272359431</v>
       </c>
       <c r="E66">
-        <v>12.62201209755537</v>
+        <v>12.2609713631291</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>12.62719568479941</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>13.01401824959164</v>
+        <v>12.56170605186418</v>
       </c>
       <c r="C67">
-        <v>12.46020464205663</v>
+        <v>12.27763185652101</v>
       </c>
       <c r="D67">
-        <v>12.30313951790708</v>
+        <v>11.95019035704623</v>
       </c>
       <c r="E67">
-        <v>12.76010595937373</v>
+        <v>12.41768357543946</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>12.75603076168159</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>13.13065642966303</v>
+        <v>12.71714945872379</v>
       </c>
       <c r="C68">
-        <v>12.59095139240164</v>
+        <v>12.42845635489812</v>
       </c>
       <c r="D68">
-        <v>12.48602120323827</v>
+        <v>12.0451293954232</v>
       </c>
       <c r="E68">
-        <v>12.90634959223904</v>
+        <v>12.58367009869089</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>12.88951564079645</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>13.24937291558115</v>
+        <v>12.87670301060336</v>
       </c>
       <c r="C69">
-        <v>12.73000208188459</v>
+        <v>12.58442934794253</v>
       </c>
       <c r="D69">
-        <v>12.68072898956879</v>
+        <v>12.14218999380687</v>
       </c>
       <c r="E69">
-        <v>13.06055508521266</v>
+        <v>12.75818587530176</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>13.02720858167578</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>13.36992021403382</v>
+        <v>13.03961156913543</v>
       </c>
       <c r="C70">
-        <v>12.87719404771751</v>
+        <v>12.7448320797952</v>
       </c>
       <c r="D70">
-        <v>12.88630784499388</v>
+        <v>12.24117566629034</v>
       </c>
       <c r="E70">
-        <v>13.22237402536254</v>
+        <v>12.9402886128994</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>13.16858073447859</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>13.49202397463136</v>
+        <v>13.20508232822293</v>
       </c>
       <c r="C71">
-        <v>13.03221536701152</v>
+        <v>12.90883270946625</v>
       </c>
       <c r="D71">
-        <v>13.10153551518629</v>
+        <v>12.34186713675201</v>
       </c>
       <c r="E71">
-        <v>13.39128351138738</v>
+        <v>13.12886473154986</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>13.3130312674739</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>13.61538720369663</v>
+        <v>13.37230539437105</v>
       </c>
       <c r="C72">
-        <v>13.19458604553393</v>
+        <v>13.07551292208453</v>
       </c>
       <c r="D72">
-        <v>13.32494567119916</v>
+        <v>12.44402638764533</v>
       </c>
       <c r="E72">
-        <v>13.56657841520494</v>
+        <v>13.32266581879291</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>13.45990603263997</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>13.73969482567856</v>
+        <v>13.54047341755891</v>
       </c>
       <c r="C73">
-        <v>13.36364137416125</v>
+        <v>13.24390151401114</v>
       </c>
       <c r="D73">
-        <v>13.5548685173997</v>
+        <v>12.54740088174374</v>
       </c>
       <c r="E73">
-        <v>13.74737335410664</v>
+        <v>13.5203529965248</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>13.60851859625704</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>13.86461852975777</v>
+        <v>13.70879939915023</v>
       </c>
       <c r="C74">
-        <v>13.5385216273191</v>
+        <v>13.41301231374156</v>
       </c>
       <c r="D74">
-        <v>13.78948740510143</v>
+        <v>12.65172797093971</v>
       </c>
       <c r="E74">
-        <v>13.93261732303973</v>
+        <v>13.72054530424977</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>13.75817165144391</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>13.98982180996003</v>
+        <v>13.87653197089328</v>
       </c>
       <c r="C75">
-        <v>13.71817368683345</v>
+        <v>13.58188217826835</v>
       </c>
       <c r="D75">
-        <v>14.02690707530902</v>
+        <v>12.75673932497531</v>
       </c>
       <c r="E75">
-        <v>14.12112240879554</v>
+        <v>13.92186773718339</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>13.90817750910176</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>14.11496507921032</v>
+        <v>14.04296765610563</v>
       </c>
       <c r="C76">
-        <v>13.90137049129237</v>
+        <v>13.74960495233999</v>
       </c>
       <c r="D76">
-        <v>14.26522684129856</v>
+        <v>12.86216526234879</v>
       </c>
       <c r="E76">
-        <v>14.31160559299442</v>
+        <v>14.12299481914061</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>14.05787609987106</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>14.2397107152038</v>
+        <v>14.20746001009156</v>
       </c>
       <c r="C77">
-        <v>14.08675224393067</v>
+        <v>13.91535812736969</v>
       </c>
       <c r="D77">
-        <v>14.50261106382633</v>
+        <v>12.96773900931583</v>
       </c>
       <c r="E77">
-        <v>14.5027399321271</v>
+        <v>14.32268660163612</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>14.20664942949239</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>14.36372788285635</v>
+        <v>14.36942561506202</v>
       </c>
       <c r="C78">
-        <v>14.27288847430223</v>
+        <v>14.07842030716472</v>
       </c>
       <c r="D78">
-        <v>14.73734996962141</v>
+        <v>13.07320070538241</v>
       </c>
       <c r="E78">
-        <v>14.69320926710952</v>
+        <v>14.51981529310246</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>14.35393212403358</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>14.48669697781867</v>
+        <v>14.52834720358715</v>
       </c>
       <c r="C79">
-        <v>14.4583534772227</v>
+        <v>14.23817967013496</v>
       </c>
       <c r="D79">
-        <v>14.96790593480008</v>
+        <v>13.1783010239957</v>
       </c>
       <c r="E79">
-        <v>14.88175984906015</v>
+        <v>14.71338223495669</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>14.49921794633737</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>14.6083135497871</v>
+        <v>14.6837743222727</v>
       </c>
       <c r="C80">
-        <v>14.64180236627593</v>
+        <v>14.39413407654397</v>
       </c>
       <c r="D80">
-        <v>15.1929430895111</v>
+        <v>13.28280430158314</v>
       </c>
       <c r="E80">
-        <v>15.06724314113571</v>
+        <v>14.90252585647651</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>14.64206274847668</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>14.72829159243236</v>
+        <v>14.83532196819574</v>
       </c>
       <c r="C81">
-        <v>14.82203411454876</v>
+        <v>14.54588494959064</v>
       </c>
       <c r="D81">
-        <v>15.41134070382833</v>
+        <v>13.38649109572503</v>
       </c>
       <c r="E81">
-        <v>15.24864617948125</v>
+        <v>15.08652207268228</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>14.78208445517034</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.84636612550304</v>
+        <v>14.98266767819453</v>
       </c>
       <c r="C82">
-        <v>14.99803222366886</v>
+        <v>14.69312775006124</v>
       </c>
       <c r="D82">
-        <v>15.62219271888016</v>
+        <v>13.48916012132862</v>
       </c>
       <c r="E82">
-        <v>15.42510844268861</v>
+        <v>15.26477905802707</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>14.91896078520737</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>14.96229503895893</v>
+        <v>15.12554752461567</v>
       </c>
       <c r="C83">
-        <v>15.16898064584091</v>
+        <v>14.83564017459078</v>
       </c>
       <c r="D83">
-        <v>15.82479678029572</v>
+        <v>13.59062946723113</v>
       </c>
       <c r="E83">
-        <v>15.59592638991268</v>
+        <v>15.43682799303275</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>15.05242541072267</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>15.07586021296223</v>
+        <v>15.2637514061193</v>
       </c>
       <c r="C84">
-        <v>15.33425872945277</v>
+        <v>14.97326982679855</v>
       </c>
       <c r="D84">
-        <v>16.01863630844787</v>
+        <v>13.69073715064086</v>
       </c>
       <c r="E84">
-        <v>15.76054821621363</v>
+        <v>15.60231152876202</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>15.1822631601943</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>15.18686796591388</v>
+        <v>15.39711797588962</v>
       </c>
       <c r="C85">
-        <v>15.4934221006058</v>
+        <v>15.10592249218164</v>
       </c>
       <c r="D85">
-        <v>16.20335875818314</v>
+        <v>13.78934110261055</v>
       </c>
       <c r="E85">
-        <v>15.9185618753424</v>
+        <v>15.76097105780481</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>15.30830475939447</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>15.29514674241281</v>
+        <v>15.52552849956655</v>
       </c>
       <c r="C86">
-        <v>15.64617574270158</v>
+        <v>15.23355104749402</v>
       </c>
       <c r="D86">
-        <v>16.3787509716257</v>
+        <v>13.88631776952468</v>
       </c>
       <c r="E86">
-        <v>16.06967783051799</v>
+        <v>15.91263220866193</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>15.43042040684918</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>15.40054133741893</v>
+        <v>15.64889980646361</v>
       </c>
       <c r="C87">
-        <v>15.79234501288472</v>
+        <v>15.35614695678024</v>
       </c>
       <c r="D87">
-        <v>16.54471355117798</v>
+        <v>13.98155949293433</v>
       </c>
       <c r="E87">
-        <v>16.21370904774463</v>
+        <v>16.05718902788336</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>15.54851435397576</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>15.50292036176898</v>
+        <v>15.76718286626146</v>
       </c>
       <c r="C88">
-        <v>15.93185328746237</v>
+        <v>15.4737309715538</v>
       </c>
       <c r="D88">
-        <v>16.70124670537687</v>
+        <v>14.0749761527216</v>
       </c>
       <c r="E88">
-        <v>16.35055991812683</v>
+        <v>16.19459918573351</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>15.66252071091533</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>15.60217666793833</v>
+        <v>15.88035928002259</v>
       </c>
       <c r="C89">
-        <v>16.0646994289018</v>
+        <v>15.58634834866904</v>
       </c>
       <c r="D89">
-        <v>16.84843183082323</v>
+        <v>14.16649454273646</v>
       </c>
       <c r="E89">
-        <v>16.48021050157255</v>
+        <v>16.32487521991723</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>15.77240139638401</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>15.69822517898837</v>
+        <v>15.98843685301319</v>
       </c>
       <c r="C90">
-        <v>16.19093857195048</v>
+        <v>15.6940627563859</v>
       </c>
       <c r="D90">
-        <v>16.98641394600362</v>
+        <v>14.25605623377992</v>
       </c>
       <c r="E90">
-        <v>16.60270112464933</v>
+        <v>16.4480739219086</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>15.87814112302062</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>15.79100074341513</v>
+        <v>16.09144533682866</v>
       </c>
       <c r="C91">
-        <v>16.31066698660489</v>
+        <v>15.79695182237629</v>
       </c>
       <c r="D91">
-        <v>17.11538694249955</v>
+        <v>14.34361574955002</v>
       </c>
       <c r="E91">
-        <v>16.71811930049607</v>
+        <v>16.56428759726462</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>15.97974369111433</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>15.88045606200513</v>
+        <v>16.18943255198723</v>
       </c>
       <c r="C92">
-        <v>16.42401038397287</v>
+        <v>15.89510359694854</v>
       </c>
       <c r="D92">
-        <v>17.23558136776315</v>
+        <v>14.42913889324088</v>
       </c>
       <c r="E92">
-        <v>16.82658882628664</v>
+        <v>16.6736369552151</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>16.07722901380569</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>15.96655972005728</v>
+        <v>16.28246144757256</v>
       </c>
       <c r="C93">
-        <v>16.53111500556272</v>
+        <v>15.98861366020506</v>
       </c>
       <c r="D93">
-        <v>17.34725441850788</v>
+        <v>14.51260121392957</v>
       </c>
       <c r="E93">
-        <v>16.92826082677713</v>
+        <v>16.77626534185053</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>16.17062983765258</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>16.04929434685677</v>
+        <v>16.37060780579393</v>
       </c>
       <c r="C94">
-        <v>16.63214089997171</v>
+        <v>16.07758297257548</v>
       </c>
       <c r="D94">
-        <v>17.45068182426083</v>
+        <v>14.59398667130553</v>
       </c>
       <c r="E94">
-        <v>17.02330648128144</v>
+        <v>16.87233239917756</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>16.25998951438276</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>16.12865491484916</v>
+        <v>16.45395694949167</v>
       </c>
       <c r="C95">
-        <v>16.72725688694069</v>
+        <v>16.16211612396635</v>
       </c>
       <c r="D95">
-        <v>17.54615132178159</v>
+        <v>14.67328632618961</v>
       </c>
       <c r="E95">
-        <v>17.11191117347639</v>
+        <v>16.96201053454396</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>16.34536024896001</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>16.20464718335881</v>
+        <v>16.53260213298338</v>
       </c>
       <c r="C96">
-        <v>16.81663680733355</v>
+        <v>16.24231996124886</v>
       </c>
       <c r="D96">
-        <v>17.63395745244192</v>
+        <v>14.75049720664139</v>
       </c>
       <c r="E96">
-        <v>17.19426982369555</v>
+        <v>17.04548154810054</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>16.42680131295963</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>16.27728628658054</v>
+        <v>16.6066431274201</v>
       </c>
       <c r="C97">
-        <v>16.90045674548013</v>
+        <v>16.31830235211073</v>
       </c>
       <c r="D97">
-        <v>17.7143974495064</v>
+        <v>14.82562144644853</v>
       </c>
       <c r="E97">
-        <v>17.27058319184075</v>
+        <v>17.12293326109355</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>16.50437708319422</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>16.34659546084104</v>
+        <v>16.67618441748241</v>
       </c>
       <c r="C98">
-        <v>16.97889298328701</v>
+        <v>16.39017143327585</v>
       </c>
       <c r="D98">
-        <v>17.78776801673787</v>
+        <v>14.8986655211159</v>
       </c>
       <c r="E98">
-        <v>17.34105496966201</v>
+        <v>17.19455722182161</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>16.57815645395995</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>16.41260490411322</v>
+        <v>16.74133390769497</v>
       </c>
       <c r="C99">
-        <v>17.0521205035405</v>
+        <v>16.4580349953742</v>
       </c>
       <c r="D99">
-        <v>17.85436283160248</v>
+        <v>14.96963952335367</v>
       </c>
       <c r="E99">
-        <v>17.40588951055009</v>
+        <v>17.26054684853087</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>16.64821174518703</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>16.47535075882332</v>
+        <v>16.80220196743045</v>
       </c>
       <c r="C100">
-        <v>17.12031190482362</v>
+        <v>16.52199993505795</v>
       </c>
       <c r="D100">
-        <v>17.91447063464997</v>
+        <v>15.03855653014948</v>
       </c>
       <c r="E100">
-        <v>17.46529007148069</v>
+        <v>17.32109582256197</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>16.71461767102756</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>16.53487420824294</v>
+        <v>16.85890053134839</v>
       </c>
       <c r="C101">
-        <v>17.18363662478374</v>
+        <v>16.58217188788919</v>
       </c>
       <c r="D101">
-        <v>17.96837379106815</v>
+        <v>15.10543203246279</v>
       </c>
       <c r="E101">
-        <v>17.51945746471715</v>
+        <v>17.37639637135446</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>16.7774506822614</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>16.59122067647951</v>
+        <v>16.91154234370315</v>
       </c>
       <c r="C102">
-        <v>17.24226039435232</v>
+        <v>16.63865490995979</v>
       </c>
       <c r="D102">
-        <v>18.01634723112984</v>
+        <v>15.17028360897678</v>
       </c>
       <c r="E102">
-        <v>17.56858903628504</v>
+        <v>17.42663878105611</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>16.83678843258378</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>16.64443912222638</v>
+        <v>16.96023999312093</v>
       </c>
       <c r="C103">
-        <v>17.29634486506118</v>
+        <v>16.69155125977078</v>
       </c>
       <c r="D103">
-        <v>18.0586576935439</v>
+        <v>15.23313062806225</v>
       </c>
       <c r="E103">
-        <v>17.61287790429888</v>
+        <v>17.47201050939237</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>16.89270927697947</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>16.69458141684113</v>
+        <v>17.00510582355216</v>
       </c>
       <c r="C104">
-        <v>17.34604736594915</v>
+        <v>16.74096125359045</v>
       </c>
       <c r="D104">
-        <v>18.09556321005307</v>
+        <v>15.29399384251257</v>
       </c>
       <c r="E104">
-        <v>17.65251240346626</v>
+        <v>17.51269541609032</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>16.9452917970977</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>16.74170179789401</v>
+        <v>17.04625137115148</v>
       </c>
       <c r="C105">
-        <v>17.3915207575555</v>
+        <v>16.78698312426281</v>
       </c>
       <c r="D105">
-        <v>18.12731278135024</v>
+        <v>15.35289508508663</v>
       </c>
       <c r="E105">
-        <v>17.68767569276667</v>
+        <v>17.54887317940544</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>16.99461447432191</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>16.78585638998933</v>
+        <v>17.08378701457514</v>
       </c>
       <c r="C106">
-        <v>17.43291335849409</v>
+        <v>16.82971294726776</v>
       </c>
       <c r="D106">
-        <v>18.15414620401786</v>
+        <v>15.40985707131251</v>
       </c>
       <c r="E106">
-        <v>17.71854549189329</v>
+        <v>17.5807189893074</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>17.0407554466804</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>16.82710278536123</v>
+        <v>17.11782160809794</v>
       </c>
       <c r="C107">
-        <v>17.47036892618189</v>
+        <v>16.86924458719009</v>
       </c>
       <c r="D107">
-        <v>18.17629401603693</v>
+        <v>15.46490325120305</v>
       </c>
       <c r="E107">
-        <v>17.74529391908742</v>
+        <v>17.60840333599077</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>17.08379230350545</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>16.86549967745303</v>
+        <v>17.14846218727914</v>
       </c>
       <c r="C108">
-        <v>17.50402667780781</v>
+        <v>16.90566965660011</v>
       </c>
       <c r="D108">
-        <v>18.19397753461145</v>
+        <v>15.5180576415991</v>
       </c>
       <c r="E108">
-        <v>17.7680874084578</v>
+        <v>17.63209181290341</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>17.12380184561265</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>16.90110654136376</v>
+        <v>17.17581384265758</v>
       </c>
       <c r="C109">
-        <v>17.53402134101892</v>
+        <v>16.93907750952632</v>
       </c>
       <c r="D109">
-        <v>18.20740896536562</v>
+        <v>15.56934468060033</v>
       </c>
       <c r="E109">
-        <v>17.78708668936421</v>
+        <v>17.65194497885724</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>17.16085993365744</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>16.93398335568948</v>
+        <v>17.1999795991331</v>
       </c>
       <c r="C110">
-        <v>17.56048322635154</v>
+        <v>16.96955525389216</v>
       </c>
       <c r="D110">
-        <v>18.21679156597585</v>
+        <v>15.61878908825815</v>
       </c>
       <c r="E110">
-        <v>17.80244681396523</v>
+        <v>17.66811821799553</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>17.19504134780336</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>16.96419036087284</v>
+        <v>17.22106029661245</v>
       </c>
       <c r="C111">
-        <v>17.58353831533826</v>
+        <v>16.99718774665599</v>
       </c>
       <c r="D111">
-        <v>18.22231985071779</v>
+        <v>15.66641583323764</v>
       </c>
       <c r="E111">
-        <v>17.81431722186274</v>
+        <v>17.68076191118993</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>17.22641970101813</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>16.9917878497381</v>
+        <v>17.2391544681111</v>
       </c>
       <c r="C112">
-        <v>17.60330835971632</v>
+        <v>17.02205762654813</v>
       </c>
       <c r="D112">
-        <v>18.22417982508247</v>
+        <v>15.71224988459642</v>
       </c>
       <c r="E112">
-        <v>17.82284183302649</v>
+        <v>17.6900209315994</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>17.25506737131116</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>17.01683598635637</v>
+        <v>17.25435834027809</v>
       </c>
       <c r="C113">
-        <v>17.61991098820219</v>
+        <v>17.04424534658307</v>
       </c>
       <c r="D113">
-        <v>18.22254924180143</v>
+        <v>15.75631635850803</v>
       </c>
       <c r="E113">
-        <v>17.82815916197689</v>
+        <v>17.69603533986772</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>17.28105542997209</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>17.03939464985386</v>
+        <v>17.26676561440486</v>
       </c>
       <c r="C114">
-        <v>17.63345981818022</v>
+        <v>17.06382920637476</v>
       </c>
       <c r="D114">
-        <v>18.21759787137925</v>
+        <v>15.79864037777778</v>
       </c>
       <c r="E114">
-        <v>17.83040244764442</v>
+        <v>17.69894020331824</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>17.30445360712877</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>17.05952330015744</v>
+        <v>17.27646765245638</v>
       </c>
       <c r="C115">
-        <v>17.64406457026965</v>
+        <v>17.08088537846388</v>
       </c>
       <c r="D115">
-        <v>18.20948778164729</v>
+        <v>15.8392469944523</v>
       </c>
       <c r="E115">
-        <v>17.82969979444216</v>
+        <v>17.69886571536415</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>17.32533023539527</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>17.0772808630344</v>
+        <v>17.28355329068222</v>
       </c>
       <c r="C116">
-        <v>17.6518311842266</v>
+        <v>17.09548794948926</v>
       </c>
       <c r="D116">
-        <v>18.19837362199772</v>
+        <v>15.87816120875829</v>
       </c>
       <c r="E116">
-        <v>17.82617432107553</v>
+        <v>17.69593717807679</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>17.34375223219458</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>17.09272563209293</v>
+        <v>17.2881090394698</v>
       </c>
       <c r="C117">
-        <v>17.65686193501002</v>
+        <v>17.10770895345744</v>
       </c>
       <c r="D117">
-        <v>18.18440290887589</v>
+        <v>15.91540783246193</v>
       </c>
       <c r="E117">
-        <v>17.81994431423545</v>
+        <v>17.69027511669926</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>17.35978509408121</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>17.10591518569074</v>
+        <v>17.29021896289627</v>
       </c>
       <c r="C118">
-        <v>17.65925554812755</v>
+        <v>17.11761846223697</v>
       </c>
       <c r="D118">
-        <v>18.16771630986858</v>
+        <v>15.9510115584286</v>
       </c>
       <c r="E118">
-        <v>17.8111233849975</v>
+        <v>17.68199545091116</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>17.37349273594672</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>17.1169063169407</v>
+        <v>17.28996474473197</v>
       </c>
       <c r="C119">
-        <v>17.65910731359762</v>
+        <v>17.12528456285033</v>
       </c>
       <c r="D119">
-        <v>18.14844792429475</v>
+        <v>15.9849968550595</v>
       </c>
       <c r="E119">
-        <v>17.79982062618832</v>
+        <v>17.67120961993138</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>17.38493780056781</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>17.12575497522172</v>
+        <v>17.28742566344382</v>
       </c>
       <c r="C120">
-        <v>17.65650919803494</v>
+        <v>17.1307734798845</v>
       </c>
       <c r="D120">
-        <v>18.12672555871715</v>
+        <v>16.01738799423341</v>
       </c>
       <c r="E120">
-        <v>17.78614076934472</v>
+        <v>17.65802467063646</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>17.39418145646168</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>17.1325162177921</v>
+        <v>17.28267867371078</v>
       </c>
       <c r="C121">
-        <v>17.65154995449171</v>
+        <v>17.13414955820375</v>
       </c>
       <c r="D121">
-        <v>18.10267099616974</v>
+        <v>16.04820902708349</v>
       </c>
       <c r="E121">
-        <v>17.77018434021032</v>
+        <v>17.64254352640117</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>17.40128349889303</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>17.13724417027068</v>
+        <v>17.2757984012557</v>
       </c>
       <c r="C122">
-        <v>17.64431522982795</v>
+        <v>17.13547535011208</v>
       </c>
       <c r="D122">
-        <v>18.07640025821872</v>
+        <v>16.07748376120839</v>
       </c>
       <c r="E122">
-        <v>17.75204781194797</v>
+        <v>17.62486496660977</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>17.40630226291221</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>17.13999199489717</v>
+        <v>17.2668572173392</v>
       </c>
       <c r="C123">
-        <v>17.63488766937398</v>
+        <v>17.13481163933571</v>
       </c>
       <c r="D123">
-        <v>18.04802385921029</v>
+        <v>16.10523576072105</v>
       </c>
       <c r="E123">
-        <v>17.73182375544354</v>
+        <v>17.6050838915701</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>17.40929468111481</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>17.14081186561362</v>
+        <v>17.2559253019404</v>
       </c>
       <c r="C124">
-        <v>17.62334701879739</v>
+        <v>17.13221748703553</v>
       </c>
       <c r="D124">
-        <v>18.0176470522738</v>
+        <v>16.13148833661038</v>
       </c>
       <c r="E124">
-        <v>17.70960098623122</v>
+        <v>17.58329136467518</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>17.41031629140264</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>17.1397549491263</v>
+        <v>17.24307066374362</v>
       </c>
       <c r="C125">
-        <v>17.60977022312395</v>
+        <v>17.12775028410049</v>
       </c>
       <c r="D125">
-        <v>17.98537006680513</v>
+        <v>16.15626452972997</v>
       </c>
       <c r="E125">
-        <v>17.68546470769658</v>
+        <v>17.55957477433829</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>17.40942126548551</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>17.13687139118666</v>
+        <v>17.22835919237067</v>
       </c>
       <c r="C126">
-        <v>17.59423152283775</v>
+        <v>17.12146578480154</v>
       </c>
       <c r="D126">
-        <v>17.95128833728428</v>
+        <v>16.17958711594527</v>
       </c>
       <c r="E126">
-        <v>17.65949665031272</v>
+        <v>17.53401794162207</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>17.4066624079983</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>17.13221030745315</v>
+        <v>17.2118547176571</v>
       </c>
       <c r="C127">
-        <v>17.57680254707454</v>
+        <v>17.11341815907297</v>
       </c>
       <c r="D127">
-        <v>17.91549272338247</v>
+        <v>16.20147858776901</v>
       </c>
       <c r="E127">
-        <v>17.6317752067461</v>
+        <v>17.50670126419619</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>17.40209124360698</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>17.12581977836996</v>
+        <v>17.1936190503786</v>
       </c>
       <c r="C128">
-        <v>17.55755240391664</v>
+        <v>17.10366003250018</v>
       </c>
       <c r="D128">
-        <v>17.87806972139626</v>
+        <v>16.22196115840393</v>
       </c>
       <c r="E128">
-        <v>17.60237556272175</v>
+        <v>17.47770184883027</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>17.39575794085579</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>17.11774684749566</v>
+        <v>17.1737120365793</v>
       </c>
       <c r="C129">
-        <v>17.53654776782306</v>
+        <v>17.0922425315136</v>
       </c>
       <c r="D129">
-        <v>17.83910166710429</v>
+        <v>16.24105675142017</v>
       </c>
       <c r="E129">
-        <v>17.57136982363818</v>
+        <v>17.44709362144914</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>17.38771146761327</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>17.10803752288301</v>
+        <v>17.1521916108166</v>
       </c>
       <c r="C130">
-        <v>17.51385296423528</v>
+        <v>17.07921532805557</v>
       </c>
       <c r="D130">
-        <v>17.79866693019717</v>
+        <v>16.25878700966625</v>
       </c>
       <c r="E130">
-        <v>17.5388271368938</v>
+        <v>17.41494746366011</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>17.37799949009033</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>17.0967367810872</v>
+        <v>17.12911384647965</v>
       </c>
       <c r="C131">
-        <v>17.48953005141668</v>
+        <v>17.06462667300208</v>
       </c>
       <c r="D131">
-        <v>17.75684010046343</v>
+        <v>16.27517328763759</v>
       </c>
       <c r="E131">
-        <v>17.50481380987553</v>
+        <v>17.38133131902894</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>17.36666849451384</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>17.08388857345876</v>
+        <v>17.10453301028858</v>
       </c>
       <c r="C132">
-        <v>17.46363889957837</v>
+        <v>17.04852342814899</v>
       </c>
       <c r="D132">
-        <v>17.71369216594355</v>
+        <v>16.29023666238776</v>
       </c>
       <c r="E132">
-        <v>17.46939342383302</v>
+        <v>17.34631032332731</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>17.35376375337678</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>17.06953583440333</v>
+        <v>17.07850161231974</v>
       </c>
       <c r="C133">
-        <v>17.4362372673607</v>
+        <v>17.03095112380167</v>
       </c>
       <c r="D133">
-        <v>17.66929068328448</v>
+        <v>16.30399791840217</v>
       </c>
       <c r="E133">
-        <v>17.43262694354797</v>
+        <v>17.30994689559463</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>17.33932936594984</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>17.0537204913357</v>
+        <v>17.05107045465641</v>
       </c>
       <c r="C134">
-        <v>17.40738087573734</v>
+        <v>17.0119539815739</v>
       </c>
       <c r="D134">
-        <v>17.62369994054081</v>
+        <v>16.31647755597747</v>
       </c>
       <c r="E134">
-        <v>17.3945728229532</v>
+        <v>17.27230085733614</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>17.32340828996288</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>17.03648347608684</v>
+        <v>17.02228868546089</v>
       </c>
       <c r="C135">
-        <v>17.37712347941115</v>
+        <v>16.99157495894497</v>
       </c>
       <c r="D135">
-        <v>17.57698111267845</v>
+        <v>16.32769579441754</v>
       </c>
       <c r="E135">
-        <v>17.35528710678368</v>
+        <v>17.23342953056937</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>17.3060423505865</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>17.01786473754467</v>
+        <v>16.99220384412803</v>
       </c>
       <c r="C136">
-        <v>17.34551693577623</v>
+        <v>16.9698557776276</v>
       </c>
       <c r="D136">
-        <v>17.52919241004099</v>
+        <v>16.33767256759159</v>
       </c>
       <c r="E136">
-        <v>17.31482352835251</v>
+        <v>17.19338782872205</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>17.28727227744592</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>16.99790325534272</v>
+        <v>16.96086190276973</v>
       </c>
       <c r="C137">
-        <v>17.31261127151416</v>
+        <v>16.94683696646627</v>
       </c>
       <c r="D137">
-        <v>17.48038922004126</v>
+        <v>16.34642753210131</v>
       </c>
       <c r="E137">
-        <v>17.27323360357048</v>
+        <v>17.15222836977766</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>17.26713773715958</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>16.9766370544243</v>
+        <v>16.9283073373509</v>
       </c>
       <c r="C138">
-        <v>17.27845474689815</v>
+        <v>16.92255788541081</v>
       </c>
       <c r="D138">
-        <v>17.43062424234154</v>
+        <v>16.35398006371498</v>
       </c>
       <c r="E138">
-        <v>17.23056672131925</v>
+        <v>17.1100015511601</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>17.24567734148693</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>16.95410322033741</v>
+        <v>16.89458313601337</v>
       </c>
       <c r="C139">
-        <v>17.24309391787696</v>
+        <v>16.8970567685059</v>
       </c>
       <c r="D139">
-        <v>17.37994761778154</v>
+        <v>16.36034926409241</v>
       </c>
       <c r="E139">
-        <v>17.18687023028528</v>
+        <v>17.06675565327995</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>17.22292868719482</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>16.93033791512562</v>
+        <v>16.85973089156597</v>
       </c>
       <c r="C140">
-        <v>17.20657369600777</v>
+        <v>16.87037074573217</v>
       </c>
       <c r="D140">
-        <v>17.3284070513102</v>
+        <v>16.36555396003744</v>
       </c>
       <c r="E140">
-        <v>17.14218952237683</v>
+        <v>17.02253692313516</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>17.19892837490161</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>16.90537639370183</v>
+        <v>16.82379079820943</v>
       </c>
       <c r="C141">
-        <v>17.16893740630917</v>
+        <v>16.84253588406621</v>
       </c>
       <c r="D141">
-        <v>17.27604792917259</v>
+        <v>16.36961270812704</v>
       </c>
       <c r="E141">
-        <v>17.09656811283861</v>
+        <v>16.97738965119923</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>17.17371203410677</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>16.8792530205999</v>
+        <v>16.78680172813704</v>
       </c>
       <c r="C142">
-        <v>17.13022684310065</v>
+        <v>16.81358720942989</v>
       </c>
       <c r="D142">
-        <v>17.22291343059612</v>
+        <v>16.3725437964404</v>
       </c>
       <c r="E142">
-        <v>17.05004771717608</v>
+        <v>16.93135626689777</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>17.14731435171174</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>16.85200128701605</v>
+        <v>16.74880126255069</v>
       </c>
       <c r="C143">
-        <v>17.09048232389471</v>
+        <v>16.78355874391533</v>
       </c>
       <c r="D143">
-        <v>17.16904463421556</v>
+        <v>16.37436524782706</v>
       </c>
       <c r="E143">
-        <v>17.00266832500469</v>
+        <v>16.88447739653751</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>17.11976908689003</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>16.82365382805843</v>
+        <v>16.70982571933008</v>
       </c>
       <c r="C144">
-        <v>17.04974274140808</v>
+        <v>16.75248352762917</v>
       </c>
       <c r="D144">
-        <v>17.11448061946552</v>
+        <v>16.37509482416797</v>
       </c>
       <c r="E144">
-        <v>16.9544682709349</v>
+        <v>16.83679195167875</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>17.09110910553196</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>16.79424244013625</v>
+        <v>16.6699102241164</v>
       </c>
       <c r="C145">
-        <v>17.00804561375405</v>
+        <v>16.72039365334194</v>
       </c>
       <c r="D145">
-        <v>17.05925856316616</v>
+        <v>16.37475002658492</v>
       </c>
       <c r="E145">
-        <v>16.90548430260217</v>
+        <v>16.78833719374401</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>17.06136638871334</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>16.76379809842558</v>
+        <v>16.62908870292423</v>
       </c>
       <c r="C146">
-        <v>16.96542713287845</v>
+        <v>16.68732028650037</v>
       </c>
       <c r="D146">
-        <v>17.00341383151662</v>
+        <v>16.37334809950084</v>
       </c>
       <c r="E146">
-        <v>16.85575164594902</v>
+        <v>16.73914879882783</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>17.03057206907772</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>16.73235097435848</v>
+        <v>16.58739397163743</v>
       </c>
       <c r="C147">
-        <v>16.92192221129885</v>
+        <v>16.65329369885243</v>
       </c>
       <c r="D147">
-        <v>16.94698006770427</v>
+        <v>16.37090603757245</v>
       </c>
       <c r="E147">
-        <v>16.80530406786287</v>
+        <v>16.68926093162498</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>16.99875643826123</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>16.69993045308683</v>
+        <v>16.54485773224743</v>
       </c>
       <c r="C148">
-        <v>16.87756452720323</v>
+        <v>16.61834328644867</v>
       </c>
       <c r="D148">
-        <v>16.88998927531922</v>
+        <v>16.36744058060665</v>
       </c>
       <c r="E148">
-        <v>16.7541739362707</v>
+        <v>16.63870629142047</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>16.96594898033331</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>16.66656515088106</v>
+        <v>16.50151063369405</v>
       </c>
       <c r="C149">
-        <v>16.83238656796689</v>
+        <v>16.58249760202764</v>
       </c>
       <c r="D149">
-        <v>16.8324718978002</v>
+        <v>16.36296822251658</v>
       </c>
       <c r="E149">
-        <v>16.70239227779036</v>
+        <v>16.58751621935352</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>16.93217838326627</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>16.63228293242949</v>
+        <v>16.45738229652286</v>
       </c>
       <c r="C150">
-        <v>16.78641967214057</v>
+        <v>16.54578437219646</v>
       </c>
       <c r="D150">
-        <v>16.77445689409824</v>
+        <v>16.35750521494155</v>
       </c>
       <c r="E150">
-        <v>16.64998883303059</v>
+        <v>16.53572067083106</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>16.89747256632134</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>16.5971109279963</v>
+        <v>16.41250133589048</v>
       </c>
       <c r="C151">
-        <v>16.73969406996327</v>
+        <v>16.50823052372782</v>
       </c>
       <c r="D151">
-        <v>16.71597181059295</v>
+        <v>16.35106756483573</v>
       </c>
       <c r="E151">
-        <v>16.59699210963448</v>
+        <v>16.48334838557392</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>16.86185869547187</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>16.56107555042366</v>
+        <v>16.36689542445397</v>
       </c>
       <c r="C152">
-        <v>16.69223892245153</v>
+        <v>16.46986220395796</v>
       </c>
       <c r="D152">
-        <v>16.65704284967035</v>
+        <v>16.34367104614795</v>
       </c>
       <c r="E152">
-        <v>16.54342943315457</v>
+        <v>16.43042687368928</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>16.82536320709321</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>16.52420251195026</v>
+        <v>16.3205912793559</v>
       </c>
       <c r="C153">
-        <v>16.64408235911214</v>
+        <v>16.4307048206836</v>
       </c>
       <c r="D153">
-        <v>16.59769493496186</v>
+        <v>16.33533120042247</v>
       </c>
       <c r="E153">
-        <v>16.48932699584548</v>
+        <v>16.37698240657097</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>16.78801181938284</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>16.48651684082063</v>
+        <v>16.27361474245595</v>
       </c>
       <c r="C154">
-        <v>16.59525151432893</v>
+        <v>16.39078303407175</v>
       </c>
       <c r="D154">
-        <v>16.5379517734248</v>
+        <v>16.3260633349312</v>
       </c>
       <c r="E154">
-        <v>16.43470990345705</v>
+        <v>16.32304024231007</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>16.74982956099599</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>16.44804289767305</v>
+        <v>16.22599076618344</v>
       </c>
       <c r="C155">
-        <v>16.54577256246832</v>
+        <v>16.35012079032401</v>
       </c>
       <c r="D155">
-        <v>16.47783591444689</v>
+        <v>16.31588253088483</v>
       </c>
       <c r="E155">
-        <v>16.37960222010804</v>
+        <v>16.26862445898429</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>16.71084079314301</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>16.40880439169427</v>
+        <v>16.17774347070057</v>
       </c>
       <c r="C156">
-        <v>16.49567075174869</v>
+        <v>16.30874137958621</v>
       </c>
       <c r="D156">
-        <v>16.41736880608687</v>
+        <v>16.3048036456944</v>
       </c>
       <c r="E156">
-        <v>16.32402701131747</v>
+        <v>16.2137581635821</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>16.67106920099412</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>16.36882439651978</v>
+        <v>16.12889616282221</v>
       </c>
       <c r="C157">
-        <v>16.44497043691803</v>
+        <v>16.26666738904124</v>
       </c>
       <c r="D157">
-        <v>16.35657084860209</v>
+        <v>16.29284131592093</v>
       </c>
       <c r="E157">
-        <v>16.26800638526765</v>
+        <v>16.15846347585559</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>16.63053783784928</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>16.32812536587737</v>
+        <v>16.07947135316557</v>
       </c>
       <c r="C158">
-        <v>16.39369511077862</v>
+        <v>16.22392074175164</v>
       </c>
       <c r="D158">
-        <v>16.29546144538733</v>
+        <v>16.28000995463324</v>
       </c>
       <c r="E158">
-        <v>16.21156153237058</v>
+        <v>16.10276152131054</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>16.58926915387596</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>16.28672914896292</v>
+        <v>16.02949080694518</v>
       </c>
       <c r="C159">
-        <v>16.34186743460203</v>
+        <v>16.18052277850861</v>
       </c>
       <c r="D159">
-        <v>16.23405905144777</v>
+        <v>16.26632376391566</v>
       </c>
       <c r="E159">
-        <v>16.15471276320612</v>
+        <v>16.04667258011329</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>16.54728496419967</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>16.24465700553837</v>
+        <v>15.97897553445971</v>
       </c>
       <c r="C160">
-        <v>16.2895092674719</v>
+        <v>16.13649418912333</v>
       </c>
       <c r="D160">
-        <v>16.17238121952496</v>
+        <v>16.25179673211209</v>
       </c>
       <c r="E160">
-        <v>16.09747954489826</v>
+        <v>15.99021601686442</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>16.50460649046238</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>16.20192962075365</v>
+        <v>15.9279458549555</v>
       </c>
       <c r="C161">
-        <v>16.23664169459212</v>
+        <v>16.09185505016884</v>
       </c>
       <c r="D161">
-        <v>16.11044464398963</v>
+        <v>16.23644263881632</v>
       </c>
       <c r="E161">
-        <v>16.03988053599286</v>
+        <v>15.93341039192546</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>16.46125441329812</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>16.15856711968292</v>
+        <v>15.87642138433951</v>
       </c>
       <c r="C162">
-        <v>16.18328505459843</v>
+        <v>16.04662490221786</v>
       </c>
       <c r="D162">
-        <v>16.04826520260861</v>
+        <v>16.22027505668864</v>
       </c>
       <c r="E162">
-        <v>15.98193361989783</v>
+        <v>15.87627347807697</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>16.41724882698138</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>16.11458908157249</v>
+        <v>15.82442108244823</v>
       </c>
       <c r="C163">
-        <v>16.12945896590522</v>
+        <v>16.00082269548302</v>
       </c>
       <c r="D163">
-        <v>15.98585799627922</v>
+        <v>16.20330735528774</v>
       </c>
       <c r="E163">
-        <v>15.92365593694478</v>
+        <v>15.81882225931061</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>16.37260926646803</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>16.07001455380386</v>
+        <v>15.77196326701741</v>
       </c>
       <c r="C164">
-        <v>16.07518235212445</v>
+        <v>15.95446682063669</v>
       </c>
       <c r="D164">
-        <v>15.92323738684247</v>
+        <v>16.18555270389552</v>
       </c>
       <c r="E164">
-        <v>15.86506391512822</v>
+        <v>15.76107303785803</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>16.32735477139038</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>16.02486206556479</v>
+        <v>15.71906562651883</v>
       </c>
       <c r="C165">
-        <v>16.02047346658782</v>
+        <v>15.90757516720984</v>
       </c>
       <c r="D165">
-        <v>15.86041703306089</v>
+        <v>16.16702407475563</v>
       </c>
       <c r="E165">
-        <v>15.80617329957585</v>
+        <v>15.70304137535076</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>16.28150384643732</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>15.97914964123064</v>
+        <v>15.66574526271805</v>
       </c>
       <c r="C166">
-        <v>15.96534991600366</v>
+        <v>15.86016509069275</v>
       </c>
       <c r="D166">
-        <v>15.79740992484595</v>
+        <v>16.14773424471582</v>
       </c>
       <c r="E166">
-        <v>15.74699918080302</v>
+        <v>15.64474218930479</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>16.23507447772508</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>15.93289481346</v>
+        <v>15.61201868105231</v>
       </c>
       <c r="C167">
-        <v>15.90982868328083</v>
+        <v>15.8122534354782</v>
       </c>
       <c r="D167">
-        <v>15.73422841582605</v>
+        <v>16.12769579927748</v>
       </c>
       <c r="E167">
-        <v>15.68755602180038</v>
+        <v>15.58618976773528</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>16.18808419035928</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>15.88611463599965</v>
+        <v>15.55790184269501</v>
       </c>
       <c r="C168">
-        <v>15.85392614954582</v>
+        <v>15.76385658402024</v>
       </c>
       <c r="D168">
-        <v>15.67088425433158</v>
+        <v>16.10692113589293</v>
       </c>
       <c r="E168">
-        <v>15.62785768400294</v>
+        <v>15.52739774018461</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>16.14055002190337</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>15.83882569620458</v>
+        <v>15.50341015436366</v>
       </c>
       <c r="C169">
-        <v>15.79765811538408</v>
+        <v>15.71499043284695</v>
       </c>
       <c r="D169">
-        <v>15.60738861287428</v>
+        <v>16.08542246444029</v>
       </c>
       <c r="E169">
-        <v>15.56791745218632</v>
+        <v>15.46837919952768</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>16.09248853000213</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>15.79104412727721</v>
+        <v>15.44855850602024</v>
       </c>
       <c r="C170">
-        <v>15.7410398213318</v>
+        <v>15.66567041055695</v>
       </c>
       <c r="D170">
-        <v>15.54375211619372</v>
+        <v>16.06321181291954</v>
       </c>
       <c r="E170">
-        <v>15.50774805833449</v>
+        <v>15.40914664380241</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>16.04391584733458</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>15.74278562022221</v>
+        <v>15.39336128176692</v>
       </c>
       <c r="C171">
-        <v>15.68408596764444</v>
+        <v>15.615911524497</v>
       </c>
       <c r="D171">
-        <v>15.47998486794027</v>
+        <v>16.04030102861099</v>
       </c>
       <c r="E171">
-        <v>15.44736170452104</v>
+        <v>15.34971204289377</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>15.99484766051729</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>15.69406543552544</v>
+        <v>15.3378323701684</v>
       </c>
       <c r="C172">
-        <v>15.62681073336865</v>
+        <v>15.56572833453282</v>
       </c>
       <c r="D172">
-        <v>15.41609647606043</v>
+        <v>16.01670177875547</v>
       </c>
       <c r="E172">
-        <v>15.38677008484474</v>
+        <v>15.29008686246907</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>15.94529921089082</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>15.64489841456068</v>
+        <v>15.28198519811598</v>
       </c>
       <c r="C173">
-        <v>15.56922779474034</v>
+        <v>15.51513496504195</v>
       </c>
       <c r="D173">
-        <v>15.35209607694765</v>
+        <v>15.99242555756593</v>
       </c>
       <c r="E173">
-        <v>15.32598440645839</v>
+        <v>15.23028205776001</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>15.89528535137553</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>15.59529899072186</v>
+        <v>15.22583272239943</v>
       </c>
       <c r="C174">
-        <v>15.51135034293394</v>
+        <v>15.46414516244805</v>
       </c>
       <c r="D174">
-        <v>15.28799235841807</v>
+        <v>15.96748368556561</v>
       </c>
       <c r="E174">
-        <v>15.26501540972805</v>
+        <v>15.17030813972446</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>15.84482052541228</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>15.54528120029098</v>
+        <v>15.16938747205745</v>
       </c>
       <c r="C175">
-        <v>15.45319110118537</v>
+        <v>15.41277226124081</v>
       </c>
       <c r="D175">
-        <v>15.22379358156836</v>
+        <v>15.94188731196301</v>
       </c>
       <c r="E175">
-        <v>15.20387338755883</v>
+        <v>15.11017514407042</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>15.79391875577409</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>15.49485869304491</v>
+        <v>15.11266153918216</v>
       </c>
       <c r="C176">
-        <v>15.39476234131053</v>
+        <v>15.36102919637025</v>
       </c>
       <c r="D176">
-        <v>15.15950760157095</v>
+        <v>15.91564741989237</v>
       </c>
       <c r="E176">
-        <v>15.14256820392135</v>
+        <v>15.04989268267731</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>15.74259371617241</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>15.44404474259979</v>
+        <v>15.05566660939756</v>
       </c>
       <c r="C177">
-        <v>15.33607589964148</v>
+        <v>15.30892855481797</v>
       </c>
       <c r="D177">
-        <v>15.09514188745526</v>
+        <v>15.88877482627291</v>
       </c>
       <c r="E177">
-        <v>15.08110931161177</v>
+        <v>14.98946996764466</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>15.69085870183645</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>15.39285225650429</v>
+        <v>14.99841397025206</v>
       </c>
       <c r="C178">
-        <v>15.27714319239973</v>
+        <v>15.25648254768169</v>
       </c>
       <c r="D178">
-        <v>15.03070354092746</v>
+        <v>15.86128018515748</v>
       </c>
       <c r="E178">
-        <v>15.01950576927772</v>
+        <v>14.92891578633961</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>15.63872661856841</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>15.34129378608439</v>
+        <v>14.94091451937557</v>
       </c>
       <c r="C179">
-        <v>15.21797523052705</v>
+        <v>15.20370302035714</v>
       </c>
       <c r="D179">
-        <v>14.96619931427375</v>
+        <v>15.83317399125229</v>
       </c>
       <c r="E179">
-        <v>14.95776625773919</v>
+        <v>14.86823857836273</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>15.58621005008173</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>15.28938153603919</v>
+        <v>14.8831787912434</v>
       </c>
       <c r="C180">
-        <v>15.15858263399304</v>
+        <v>15.1506014976852</v>
       </c>
       <c r="D180">
-        <v>14.90163562739194</v>
+        <v>15.8044665800568</v>
       </c>
       <c r="E180">
-        <v>14.89589909563452</v>
+        <v>14.80744640025159</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>15.53332123182055</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>15.23712737379947</v>
+        <v>14.82521695062915</v>
       </c>
       <c r="C181">
-        <v>15.09897564559758</v>
+        <v>15.09718916174842</v>
       </c>
       <c r="D181">
-        <v>14.8370185839937</v>
+        <v>15.77516813235207</v>
       </c>
       <c r="E181">
-        <v>14.83391225441901</v>
+        <v>14.74654696378399</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>15.48007204383321</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>15.18454283865142</v>
+        <v>14.76703882592855</v>
       </c>
       <c r="C182">
-        <v>15.03916414428647</v>
+        <v>15.04347685996481</v>
       </c>
       <c r="D182">
-        <v>14.77235398701786</v>
+        <v>15.74528867612604</v>
       </c>
       <c r="E182">
-        <v>14.77181337274284</v>
+        <v>14.68554765960266</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>15.42647406326293</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>15.13163915062526</v>
+        <v>14.70865390186567</v>
       </c>
       <c r="C183">
-        <v>14.97915765799693</v>
+        <v>14.9894751455673</v>
       </c>
       <c r="D183">
-        <v>14.70764735329303</v>
+        <v>15.71483808665375</v>
       </c>
       <c r="E183">
-        <v>14.70960977023404</v>
+        <v>14.62445553992355</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>15.37253854981568</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>15.07842721916129</v>
+        <v>14.65007134371903</v>
       </c>
       <c r="C184">
-        <v>14.91896537604971</v>
+        <v>14.93519425858692</v>
       </c>
       <c r="D184">
-        <v>14.64290392748608</v>
+        <v>15.68382609245317</v>
       </c>
       <c r="E184">
-        <v>14.64730846071098</v>
+        <v>14.5632773734392</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>15.31827643961673</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.02491765155427</v>
+        <v>14.59130000373962</v>
       </c>
       <c r="C185">
-        <v>14.85859616110383</v>
+        <v>14.88064413121613</v>
       </c>
       <c r="D185">
-        <v>14.5781286953712</v>
+        <v>15.65226227509523</v>
       </c>
       <c r="E185">
-        <v>14.58491616484812</v>
+        <v>14.50201962464682</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>15.26369838255014</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>14.97112076117769</v>
+        <v>14.53234842758631</v>
       </c>
       <c r="C186">
-        <v>14.79805856068947</v>
+        <v>14.82583442777619</v>
       </c>
       <c r="D186">
-        <v>14.51332639645242</v>
+        <v>15.62015607062736</v>
       </c>
       <c r="E186">
-        <v>14.52243932231745</v>
+        <v>14.44068848004494</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>15.20881474103108</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>14.91704657549955</v>
+        <v>14.47322487558296</v>
       </c>
       <c r="C187">
-        <v>14.73736081833384</v>
+        <v>14.77077452556288</v>
       </c>
       <c r="D187">
-        <v>14.44850153597196</v>
+        <v>15.58751677477853</v>
       </c>
       <c r="E187">
-        <v>14.4598841034214</v>
+        <v>14.37928986933678</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>15.15363558053526</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>14.86270484388953</v>
+        <v>14.413937317295</v>
       </c>
       <c r="C188">
-        <v>14.67651088429421</v>
+        <v>14.71547351833344</v>
       </c>
       <c r="D188">
-        <v>14.38365839633231</v>
+        <v>15.55435354246869</v>
       </c>
       <c r="E188">
-        <v>14.39725642025438</v>
+        <v>14.31782944862936</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>15.09817069799439</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>14.80810504522148</v>
+        <v>14.35449345802654</v>
       </c>
       <c r="C189">
-        <v>14.61551642591237</v>
+        <v>14.65994025594357</v>
       </c>
       <c r="D189">
-        <v>14.31880104796267</v>
+        <v>15.52067539022117</v>
       </c>
       <c r="E189">
-        <v>14.33456193742543</v>
+        <v>14.25631264864505</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>15.04242962959639</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>14.75325639528056</v>
+        <v>14.29490072643701</v>
       </c>
       <c r="C190">
-        <v>14.55438483760339</v>
+        <v>14.6041833251889</v>
       </c>
       <c r="D190">
-        <v>14.25393335965575</v>
+        <v>15.48649120008529</v>
       </c>
       <c r="E190">
-        <v>14.27180608226881</v>
+        <v>14.19474465519834</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>14.98642163892245</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>14.69816785397509</v>
+        <v>14.23516630568441</v>
       </c>
       <c r="C191">
-        <v>14.49312325049187</v>
+        <v>14.54821105223837</v>
       </c>
       <c r="D191">
-        <v>14.18905900840083</v>
+        <v>15.4518097196421</v>
       </c>
       <c r="E191">
-        <v>14.20899405468043</v>
+        <v>14.13313042919758</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>14.93015573757125</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>14.64284813235845</v>
+        <v>14.17529713960725</v>
       </c>
       <c r="C192">
-        <v>14.43173854170813</v>
+        <v>14.4920315402607</v>
       </c>
       <c r="D192">
-        <v>14.12418148873769</v>
+        <v>15.41663956460025</v>
       </c>
       <c r="E192">
-        <v>14.14613083655385</v>
+        <v>14.07147472721815</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>14.87364070047084</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>14.58730569946841</v>
+        <v>14.11529992812688</v>
       </c>
       <c r="C193">
-        <v>14.3702373433564</v>
+        <v>14.43565265167537</v>
       </c>
       <c r="D193">
-        <v>14.05930412165465</v>
+        <v>15.38098922114075</v>
       </c>
       <c r="E193">
-        <v>14.08322120080219</v>
+        <v>14.00978208450866</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>14.81688505266607</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>14.53154878898426</v>
+        <v>14.05518112025931</v>
       </c>
       <c r="C194">
-        <v>14.30862605116617</v>
+        <v>14.37908200996132</v>
       </c>
       <c r="D194">
-        <v>13.99443006305309</v>
+        <v>15.34486704750896</v>
       </c>
       <c r="E194">
-        <v>14.02026972002209</v>
+        <v>13.9480568554056</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>14.75989708302159</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.47558540570786</v>
+        <v>13.99494698622232</v>
       </c>
       <c r="C195">
-        <v>14.24691083283839</v>
+        <v>14.32232703406261</v>
       </c>
       <c r="D195">
-        <v>13.92956231179928</v>
+        <v>15.30828127616077</v>
       </c>
       <c r="E195">
-        <v>13.95728077478413</v>
+        <v>13.8863031982409</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>14.70268486496617</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>14.41942333187463</v>
+        <v>13.93460357899379</v>
       </c>
       <c r="C196">
-        <v>14.185097636097</v>
+        <v>14.26539492284263</v>
       </c>
       <c r="D196">
-        <v>13.86470371738394</v>
+        <v>15.27124001567921</v>
       </c>
       <c r="E196">
-        <v>13.89425856159183</v>
+        <v>13.82452508968417</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>14.64525624313651</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>14.36307013329477</v>
+        <v>13.87415668775209</v>
       </c>
       <c r="C197">
-        <v>14.12319219645625</v>
+        <v>14.20829265615555</v>
       </c>
       <c r="D197">
-        <v>13.79985698720829</v>
+        <v>15.23375125257771</v>
       </c>
       <c r="E197">
-        <v>13.83120710051234</v>
+        <v>13.76272634262596</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>14.5876188415832</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>14.30653316533165</v>
+        <v>13.81361195187069</v>
       </c>
       <c r="C198">
-        <v>14.06120004471408</v>
+        <v>14.15102702641104</v>
       </c>
       <c r="D198">
-        <v>13.73502469351545</v>
+        <v>15.19582285315818</v>
       </c>
       <c r="E198">
-        <v>13.76813024247612</v>
+        <v>13.70091059263072</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>14.52978008762023</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>14.24981957872201</v>
+        <v>13.75297482430331</v>
       </c>
       <c r="C199">
-        <v>13.99912651418069</v>
+        <v>14.09360462480143</v>
       </c>
       <c r="D199">
-        <v>13.67020927998319</v>
+        <v>15.15746256539978</v>
       </c>
       <c r="E199">
-        <v>13.705031676294</v>
+        <v>13.6390813294855</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>14.47174719907773</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>14.19293632523835</v>
+        <v>13.69225055444739</v>
       </c>
       <c r="C200">
-        <v>13.93697674765207</v>
+        <v>14.03603184149645</v>
       </c>
       <c r="D200">
-        <v>13.60541306799598</v>
+        <v>15.11867802052315</v>
       </c>
       <c r="E200">
-        <v>13.64191493537067</v>
+        <v>13.5772418862921</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>14.41352718830056</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>14.13589016320095</v>
+        <v>13.63144417791451</v>
       </c>
       <c r="C201">
-        <v>13.87475570413754</v>
+        <v>13.97831489529186</v>
       </c>
       <c r="D201">
-        <v>13.54063826261106</v>
+        <v>15.07947673504657</v>
       </c>
       <c r="E201">
-        <v>13.57878340413974</v>
+        <v>13.51539544962184</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>14.35512688781226</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>14.0786876628428</v>
+        <v>13.57056060970713</v>
       </c>
       <c r="C202">
-        <v>13.81246816534958</v>
+        <v>13.92045982087331</v>
       </c>
       <c r="D202">
-        <v>13.47588695823006</v>
+        <v>15.0398661121968</v>
       </c>
       <c r="E202">
-        <v>13.51564032424373</v>
+        <v>13.45354507534558</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>14.29655293819395</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>14.02133521152842</v>
+        <v>13.50960458236214</v>
       </c>
       <c r="C203">
-        <v>13.75011874196485</v>
+        <v>13.86247246824247</v>
       </c>
       <c r="D203">
-        <v>13.41116114399767</v>
+        <v>14.99985344393532</v>
       </c>
       <c r="E203">
-        <v>13.45248880044648</v>
+        <v>13.39169367628871</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>14.23781178876674</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13.96383901883353</v>
+        <v>13.44858063739377</v>
       </c>
       <c r="C204">
-        <v>13.68771187966396</v>
+        <v>13.80435853087078</v>
       </c>
       <c r="D204">
-        <v>13.34646270895767</v>
+        <v>14.95944591239216</v>
       </c>
       <c r="E204">
-        <v>13.38933180630524</v>
+        <v>13.32984404868216</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>14.17890972454499</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13.90620512148861</v>
+        <v>13.387493183049</v>
       </c>
       <c r="C205">
-        <v>13.62525186495753</v>
+        <v>13.74612353370289</v>
       </c>
       <c r="D205">
-        <v>13.28179344692031</v>
+        <v>14.91865059175742</v>
       </c>
       <c r="E205">
-        <v>13.32617218961001</v>
+        <v>13.267998863161</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>14.11985285454029</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13.84843938818694</v>
+        <v>13.32634647859195</v>
       </c>
       <c r="C206">
-        <v>13.56274283080532</v>
+        <v>13.68777283209084</v>
       </c>
       <c r="D206">
-        <v>13.21715506109721</v>
+        <v>14.87747444972035</v>
       </c>
       <c r="E206">
-        <v>13.26301267758908</v>
+        <v>13.20616067203593</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>14.06064710991969</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13.79054752426436</v>
+        <v>13.26514462919275</v>
       </c>
       <c r="C207">
-        <v>13.50018876204592</v>
+        <v>13.62931163827737</v>
       </c>
       <c r="D207">
-        <v>13.15254916853251</v>
+        <v>14.83592434929995</v>
       </c>
       <c r="E207">
-        <v>13.19985588191344</v>
+        <v>13.14433192328335</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>14.00129827158782</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.7325350762529</v>
+        <v>13.20389158460043</v>
       </c>
       <c r="C208">
-        <v>13.43759350062778</v>
+        <v>13.57074501027348</v>
       </c>
       <c r="D208">
-        <v>13.08797730431893</v>
+        <v>14.7940070501871</v>
       </c>
       <c r="E208">
-        <v>13.13670430348062</v>
+        <v>13.08251494983501</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>13.94181195899836</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.67440743630913</v>
+        <v>13.14259118187254</v>
       </c>
       <c r="C209">
-        <v>13.37496075064764</v>
+        <v>13.51207785051198</v>
       </c>
       <c r="D209">
-        <v>13.02344092558738</v>
+        <v>14.75172921059641</v>
       </c>
       <c r="E209">
-        <v>13.07356033700438</v>
+        <v>13.02071199094297</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>13.88219362658881</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.61616984651935</v>
+        <v>13.08124712147996</v>
       </c>
       <c r="C210">
-        <v>13.31229408321664</v>
+        <v>13.45331493042459</v>
       </c>
       <c r="D210">
-        <v>12.95894141530984</v>
+        <v>14.70909738848885</v>
       </c>
       <c r="E210">
-        <v>13.01042627542068</v>
+        <v>12.95892518539856</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>13.8224485910564</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.55782740309867</v>
+        <v>13.01986295941409</v>
       </c>
       <c r="C211">
-        <v>13.24959694116711</v>
+        <v>13.39446088034964</v>
       </c>
       <c r="D211">
-        <v>12.89448008592175</v>
+        <v>14.66611804343155</v>
       </c>
       <c r="E211">
-        <v>12.94730431410063</v>
+        <v>12.89715657664937</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>13.76258202099217</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>13.49938506047877</v>
+        <v>12.95844214500813</v>
       </c>
       <c r="C212">
-        <v>13.1868726435803</v>
+        <v>13.33552018796606</v>
       </c>
       <c r="D212">
-        <v>12.83005818276832</v>
+        <v>14.62279753775485</v>
       </c>
       <c r="E212">
-        <v>12.88419655489683</v>
+        <v>12.83540812469707</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>13.70259893221998</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.44084763526474</v>
+        <v>12.89698801221409</v>
       </c>
       <c r="C213">
-        <v>13.12412439015531</v>
+        <v>13.27649722101055</v>
       </c>
       <c r="D213">
-        <v>12.76567688737568</v>
+        <v>14.57914213836814</v>
       </c>
       <c r="E213">
-        <v>12.82110501002058</v>
+        <v>12.77368169717059</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>13.64250421403489</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.38221981008794</v>
+        <v>12.83550377336129</v>
       </c>
       <c r="C214">
-        <v>13.06135526542746</v>
+        <v>13.21739621816685</v>
       </c>
       <c r="D214">
-        <v>12.70133732056446</v>
+        <v>14.53515801788959</v>
       </c>
       <c r="E214">
-        <v>12.75803160575331</v>
+        <v>12.7119790865177</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>13.58230261933239</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.32350613736681</v>
+        <v>12.77399251349958</v>
       </c>
       <c r="C215">
-        <v>12.99856824283495</v>
+        <v>13.15822128727278</v>
       </c>
       <c r="D215">
-        <v>12.63704054541684</v>
+        <v>14.49085125644431</v>
       </c>
       <c r="E215">
-        <v>12.69497818601401</v>
+        <v>12.65030200483154</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>13.52199876193675</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.26471104296497</v>
+        <v>12.71245723845421</v>
       </c>
       <c r="C216">
-        <v>12.93576618864356</v>
+        <v>13.09897642641682</v>
       </c>
       <c r="D216">
-        <v>12.5727875700966</v>
+        <v>14.44622784271612</v>
       </c>
       <c r="E216">
-        <v>12.63194651576973</v>
+        <v>12.58865208737854</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>13.46159713608507</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.205838829743</v>
+        <v>12.65090084444896</v>
       </c>
       <c r="C217">
-        <v>12.87295186573219</v>
+        <v>13.03966551563506</v>
       </c>
       <c r="D217">
-        <v>12.50857935052853</v>
+        <v>14.40129367552899</v>
       </c>
       <c r="E217">
-        <v>12.56893828430834</v>
+        <v>12.52703090275419</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>13.40110211257888</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.14689368101209</v>
+        <v>12.58932610385393</v>
       </c>
       <c r="C218">
-        <v>12.81012793724491</v>
+        <v>12.98029231491621</v>
       </c>
       <c r="D218">
-        <v>12.4444167929466</v>
+        <v>14.35605456517522</v>
       </c>
       <c r="E218">
-        <v>12.5059551083791</v>
+        <v>12.46543994557343</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>13.34051793503758</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.08787966389604</v>
+        <v>12.52773571148586</v>
       </c>
       <c r="C219">
-        <v>12.74729697011414</v>
+        <v>12.9208604838757</v>
       </c>
       <c r="D219">
-        <v>12.38030075632543</v>
+        <v>14.31051623481314</v>
       </c>
       <c r="E219">
-        <v>12.44299853519614</v>
+        <v>12.403880649779</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>13.27984873430162</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>13.02880073260223</v>
+        <v>12.46613227029714</v>
       </c>
       <c r="C220">
-        <v>12.68446143845985</v>
+        <v>12.86137357412458</v>
       </c>
       <c r="D220">
-        <v>12.31623205468569</v>
+        <v>14.26468432177651</v>
       </c>
       <c r="E220">
-        <v>12.38007004532398</v>
+        <v>12.3423543853254</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>13.21909852941761</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.96966073160542</v>
+        <v>12.40451828724914</v>
       </c>
       <c r="C221">
-        <v>12.62162372686718</v>
+        <v>12.80183502714481</v>
       </c>
       <c r="D221">
-        <v>12.25221145928958</v>
+        <v>14.21856437890584</v>
       </c>
       <c r="E221">
-        <v>12.31717105544076</v>
+        <v>12.28086246023403</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>13.15827122304071</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.91046339873924</v>
+        <v>12.3428961730187</v>
       </c>
       <c r="C222">
-        <v>12.55878613355068</v>
+        <v>12.7422481926122</v>
       </c>
       <c r="D222">
-        <v>12.18823970072936</v>
+        <v>14.17216187578637</v>
       </c>
       <c r="E222">
-        <v>12.25430292098486</v>
+        <v>12.21940612920896</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>13.09737061178899</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.85121236820631</v>
+        <v>12.28126826864069</v>
       </c>
       <c r="C223">
-        <v>12.49595087340541</v>
+        <v>12.68261632139201</v>
       </c>
       <c r="D223">
-        <v>12.12431747091594</v>
+        <v>14.12548220004679</v>
       </c>
       <c r="E223">
-        <v>12.19146693869797</v>
+        <v>12.15798658790641</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>13.03640039085421</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.79191117350599</v>
+        <v>12.21963683041868</v>
       </c>
       <c r="C224">
-        <v>12.43312008095076</v>
+        <v>12.62294256335855</v>
       </c>
       <c r="D224">
-        <v>12.060445424967</v>
+        <v>14.07853065863326</v>
       </c>
       <c r="E224">
-        <v>12.12866434905641</v>
+        <v>12.0966049828578</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>12.97536414889189</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.73256325028211</v>
+        <v>12.15800402870326</v>
       </c>
       <c r="C225">
-        <v>12.3702958131702</v>
+        <v>12.56322998438583</v>
       </c>
       <c r="D225">
-        <v>11.99662418300384</v>
+        <v>14.03131247904463</v>
       </c>
       <c r="E225">
-        <v>12.06589633860478</v>
+        <v>12.03526240977713</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>12.9142653751177</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.6731719390926</v>
+        <v>12.09637196566606</v>
       </c>
       <c r="C226">
-        <v>12.3074800522509</v>
+        <v>12.50348155996083</v>
       </c>
       <c r="D226">
-        <v>11.93285433186355</v>
+        <v>13.98383281054142</v>
       </c>
       <c r="E226">
-        <v>12.00316404219457</v>
+        <v>11.97395991450149</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>12.85310746656314</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.61374048810347</v>
+        <v>12.03474267235056</v>
       </c>
       <c r="C227">
-        <v>12.24467470822664</v>
+        <v>12.44370017298934</v>
       </c>
       <c r="D227">
-        <v>11.86913642672491</v>
+        <v>13.93609672534505</v>
       </c>
       <c r="E227">
-        <v>11.94046854512534</v>
+        <v>11.91269850024654</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>12.79189372272776</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.55427205570921</v>
+        <v>11.97311810510072</v>
       </c>
       <c r="C228">
-        <v>12.18188162152747</v>
+        <v>12.38388862950663</v>
       </c>
       <c r="D228">
-        <v>11.80547099265528</v>
+        <v>13.88810921982601</v>
       </c>
       <c r="E228">
-        <v>11.87781088520245</v>
+        <v>11.85147912312168</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>12.73062735009391</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.49476971308135</v>
+        <v>11.91150014149112</v>
       </c>
       <c r="C229">
-        <v>12.11910256543929</v>
+        <v>12.3240496528781</v>
       </c>
       <c r="D229">
-        <v>11.74185852608153</v>
+        <v>13.83987521567283</v>
       </c>
       <c r="E229">
-        <v>11.81519205470638</v>
+        <v>11.79030269953978</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>12.66931147120743</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.43523644664761</v>
+        <v>11.84989061068115</v>
       </c>
       <c r="C230">
-        <v>12.05633924847671</v>
+        <v>12.26418588160646</v>
       </c>
       <c r="D230">
-        <v>11.6782994961929</v>
+        <v>13.79139956104032</v>
       </c>
       <c r="E230">
-        <v>11.75261300227998</v>
+        <v>11.7291701055737</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>12.60794911930399</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.37567516050453</v>
+        <v>11.78829127412788</v>
       </c>
       <c r="C231">
-        <v>11.99359331667212</v>
+        <v>12.20429988385871</v>
       </c>
       <c r="D231">
-        <v>11.61479434627082</v>
+        <v>13.74268703168059</v>
       </c>
       <c r="E231">
-        <v>11.69007463474137</v>
+        <v>11.66808217716393</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>12.54654324081282</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.31608867876148</v>
+        <v>11.72670381954185</v>
       </c>
       <c r="C232">
-        <v>11.93086635578395</v>
+        <v>12.14439415219621</v>
       </c>
       <c r="D232">
-        <v>11.55134349495594</v>
+        <v>13.69374233205962</v>
       </c>
       <c r="E232">
-        <v>11.62757781881713</v>
+        <v>11.60703971622742</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>12.48509670561048</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.25647974782211</v>
+        <v>11.66512988553623</v>
       </c>
       <c r="C233">
-        <v>11.86815989342703</v>
+        <v>12.0844711013948</v>
       </c>
       <c r="D233">
-        <v>11.48794733745329</v>
+        <v>13.64457009645732</v>
       </c>
       <c r="E233">
-        <v>11.56512338280644</v>
+        <v>11.54604348712616</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>12.42361230176799</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.19685103860502</v>
+        <v>11.60357105460902</v>
       </c>
       <c r="C234">
-        <v>11.80547540112774</v>
+        <v>12.02453308188843</v>
       </c>
       <c r="D234">
-        <v>11.4246062466798</v>
+        <v>13.5951748900526</v>
       </c>
       <c r="E234">
-        <v>11.50271211817662</v>
+        <v>11.48509422219498</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>12.36209273650908</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.13720514870156</v>
+        <v>11.54202885000732</v>
       </c>
       <c r="C235">
-        <v>11.74281429630658</v>
+        <v>11.96458237496945</v>
       </c>
       <c r="D235">
-        <v>11.36132057435373</v>
+        <v>13.54556120998897</v>
       </c>
       <c r="E235">
-        <v>11.44034478108969</v>
+        <v>11.42419262177482</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>12.30054064713829</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.07754460447513</v>
+        <v>11.4805047339979</v>
       </c>
       <c r="C236">
-        <v>11.68017794419091</v>
+        <v>11.90462119064046</v>
       </c>
       <c r="D236">
-        <v>11.29809065203151</v>
+        <v>13.49573348642627</v>
       </c>
       <c r="E236">
-        <v>11.37802209386983</v>
+        <v>11.36333935397075</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>12.23895859600604</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.01787186310377</v>
+        <v>11.41900012878284</v>
       </c>
       <c r="C237">
-        <v>11.61756765965998</v>
+        <v>11.84465168005173</v>
       </c>
       <c r="D237">
-        <v>11.23491679209566</v>
+        <v>13.44569608358082</v>
       </c>
       <c r="E237">
-        <v>11.31574474640673</v>
+        <v>11.30253505975266</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>12.17734907030061</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.95818931456716</v>
+        <v>11.35751640359716</v>
       </c>
       <c r="C238">
-        <v>11.55498470902502</v>
+        <v>11.78467593107916</v>
       </c>
       <c r="D238">
-        <v>11.17179928869312</v>
+        <v>13.39545330074582</v>
       </c>
       <c r="E238">
-        <v>11.25351339750156</v>
+        <v>11.24178035020003</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>12.11571449326144</v>
       </c>
     </row>
   </sheetData>
